--- a/Spreadsheet Applications/Managing Large Workbooks and Using Advanced Sorting and Filtering/Fall Sections.xlsx
+++ b/Spreadsheet Applications/Managing Large Workbooks and Using Advanced Sorting and Filtering/Fall Sections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Managing Large Workbooks and Using Advanced Sorting and Filtering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_01A7933F8372C8DD2616D4D201BA85076D4EFF43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1976F94D-4F3A-46CD-8099-16EF26D48A10}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_01A7933F8372C8DD2616D4D201BA85076D4EFF43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7CB5ADE-62B5-4DE1-A600-A5EC01EED005}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Room Conflicts" sheetId="1" r:id="rId1"/>
@@ -813,6 +813,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,7 +823,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2025,10 +2025,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CE0B05CE-CDA2-4CC4-A717-B7DD5B8506E1}" name="Table5" displayName="Table5" ref="A1:M50" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" headerRowCellStyle="Normal 2" dataCellStyle="Normal 3">
   <autoFilter ref="A1:M50" xr:uid="{CE0B05CE-CDA2-4CC4-A717-B7DD5B8506E1}"/>
@@ -2141,9 +2137,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2181,9 +2177,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2216,26 +2212,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2268,26 +2247,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2461,35 +2423,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -2530,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>76563</v>
       </c>
@@ -2571,7 +2530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>75287</v>
       </c>
@@ -2612,7 +2571,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>74412</v>
       </c>
@@ -2653,7 +2612,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>70270</v>
       </c>
@@ -2694,7 +2653,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>70267</v>
       </c>
@@ -2735,7 +2694,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>75602</v>
       </c>
@@ -2776,7 +2735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>74787</v>
       </c>
@@ -2817,7 +2776,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>76443</v>
       </c>
@@ -2858,7 +2817,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>70276</v>
       </c>
@@ -2899,7 +2858,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>74413</v>
       </c>
@@ -2940,7 +2899,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>76454</v>
       </c>
@@ -2981,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>76451</v>
       </c>
@@ -3022,7 +2981,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>75603</v>
       </c>
@@ -3063,7 +3022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>74432</v>
       </c>
@@ -3104,7 +3063,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>74423</v>
       </c>
@@ -3145,7 +3104,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>75285</v>
       </c>
@@ -3186,7 +3145,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>75011</v>
       </c>
@@ -3227,7 +3186,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>75008</v>
       </c>
@@ -3268,7 +3227,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>74436</v>
       </c>
@@ -3309,7 +3268,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>74433</v>
       </c>
@@ -3350,7 +3309,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>74427</v>
       </c>
@@ -3391,7 +3350,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>76321</v>
       </c>
@@ -3432,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>76245</v>
       </c>
@@ -3473,7 +3432,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>75286</v>
       </c>
@@ -3514,7 +3473,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>75002</v>
       </c>
@@ -3555,7 +3514,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>74441</v>
       </c>
@@ -3596,7 +3555,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>74440</v>
       </c>
@@ -3637,7 +3596,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>71815</v>
       </c>
@@ -3678,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>75464</v>
       </c>
@@ -3719,7 +3678,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>73075</v>
       </c>
@@ -3760,7 +3719,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>71834</v>
       </c>
@@ -3801,7 +3760,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>71829</v>
       </c>
@@ -3842,7 +3801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>71825</v>
       </c>
@@ -3883,7 +3842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>71818</v>
       </c>
@@ -3924,7 +3883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>71817</v>
       </c>
@@ -3965,7 +3924,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>75432</v>
       </c>
@@ -4006,7 +3965,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>70335</v>
       </c>
@@ -4047,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>70315</v>
       </c>
@@ -4088,7 +4047,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>70310</v>
       </c>
@@ -4129,7 +4088,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>74461</v>
       </c>
@@ -4170,7 +4129,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>74484</v>
       </c>
@@ -4211,7 +4170,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>74501</v>
       </c>
@@ -4252,7 +4211,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>75453</v>
       </c>
@@ -4293,7 +4252,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>70738</v>
       </c>
@@ -4334,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>73825</v>
       </c>
@@ -4375,7 +4334,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>71600</v>
       </c>
@@ -4416,7 +4375,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>71600</v>
       </c>
@@ -4457,7 +4416,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>71578</v>
       </c>
@@ -4498,7 +4457,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>76823</v>
       </c>
@@ -4541,7 +4500,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -4550,35 +4512,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -4619,7 +4578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>70738</v>
       </c>
@@ -4660,7 +4619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>76563</v>
       </c>
@@ -4701,7 +4660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>70267</v>
       </c>
@@ -4742,7 +4701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>75011</v>
       </c>
@@ -4783,7 +4742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>74501</v>
       </c>
@@ -4824,7 +4783,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>71578</v>
       </c>
@@ -4865,7 +4824,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>76321</v>
       </c>
@@ -4906,7 +4865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>74412</v>
       </c>
@@ -4947,7 +4906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>75603</v>
       </c>
@@ -4988,7 +4947,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>74427</v>
       </c>
@@ -5029,7 +4988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>75464</v>
       </c>
@@ -5070,7 +5029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>71815</v>
       </c>
@@ -5111,7 +5070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>75432</v>
       </c>
@@ -5152,7 +5111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>76245</v>
       </c>
@@ -5193,7 +5152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>71829</v>
       </c>
@@ -5234,7 +5193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>74787</v>
       </c>
@@ -5275,7 +5234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>71600</v>
       </c>
@@ -5316,7 +5275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>70315</v>
       </c>
@@ -5357,7 +5316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>73075</v>
       </c>
@@ -5398,7 +5357,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>75285</v>
       </c>
@@ -5439,7 +5398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>70335</v>
       </c>
@@ -5480,7 +5439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>76451</v>
       </c>
@@ -5521,7 +5480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>74440</v>
       </c>
@@ -5562,7 +5521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>75563</v>
       </c>
@@ -5603,7 +5562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>75446</v>
       </c>
@@ -5644,7 +5603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>74431</v>
       </c>
@@ -5685,7 +5644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>71823</v>
       </c>
@@ -5726,7 +5685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>75472</v>
       </c>
@@ -5767,7 +5726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>71577</v>
       </c>
@@ -5808,7 +5767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>71575</v>
       </c>
@@ -5849,7 +5808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>75451</v>
       </c>
@@ -5890,7 +5849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>70266</v>
       </c>
@@ -5931,7 +5890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>76827</v>
       </c>
@@ -5972,7 +5931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>75445</v>
       </c>
@@ -6013,7 +5972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>76826</v>
       </c>
@@ -6054,7 +6013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>74477</v>
       </c>
@@ -6095,7 +6054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>70273</v>
       </c>
@@ -6136,7 +6095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>74424</v>
       </c>
@@ -6177,7 +6136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>75001</v>
       </c>
@@ -6218,7 +6177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>70741</v>
       </c>
@@ -6259,7 +6218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>76453</v>
       </c>
@@ -6300,7 +6259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>75452</v>
       </c>
@@ -6341,7 +6300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>75562</v>
       </c>
@@ -6382,7 +6341,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>74471</v>
       </c>
@@ -6423,7 +6382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>76600</v>
       </c>
@@ -6464,7 +6423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>71830</v>
       </c>
@@ -6505,7 +6464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>76442</v>
       </c>
@@ -6546,7 +6505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>71833</v>
       </c>
@@ -6587,7 +6546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>75007</v>
       </c>
@@ -6628,7 +6587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>75477</v>
       </c>
@@ -6669,7 +6628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>71820</v>
       </c>
@@ -6710,7 +6669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>73251</v>
       </c>
@@ -6751,7 +6710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>76460</v>
       </c>
@@ -6792,7 +6751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>75478</v>
       </c>
@@ -6833,7 +6792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>71828</v>
       </c>
@@ -6874,7 +6833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>73236</v>
       </c>
@@ -6915,7 +6874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>76824</v>
       </c>
@@ -6956,7 +6915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>74430</v>
       </c>
@@ -6997,7 +6956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>70733</v>
       </c>
@@ -7038,7 +6997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>75437</v>
       </c>
@@ -7079,7 +7038,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>70706</v>
       </c>
@@ -7120,7 +7079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>70323</v>
       </c>
@@ -7161,7 +7120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>75426</v>
       </c>
@@ -7202,7 +7161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>75447</v>
       </c>
@@ -7243,7 +7202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>73227</v>
       </c>
@@ -7284,7 +7243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>75458</v>
       </c>
@@ -7325,7 +7284,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>71827</v>
       </c>
@@ -7366,7 +7325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>70386</v>
       </c>
@@ -7407,7 +7366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>70685</v>
       </c>
@@ -7448,7 +7407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>74437</v>
       </c>
@@ -7489,7 +7448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>72656</v>
       </c>
@@ -7530,7 +7489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72237</v>
       </c>
@@ -7571,7 +7530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>70382</v>
       </c>
@@ -7612,7 +7571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>75475</v>
       </c>
@@ -7653,7 +7612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>76458</v>
       </c>
@@ -7694,7 +7653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>75010</v>
       </c>
@@ -7735,7 +7694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>70742</v>
       </c>
@@ -7776,7 +7735,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>73268</v>
       </c>
@@ -7817,7 +7776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>75012</v>
       </c>
@@ -7858,7 +7817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>76829</v>
       </c>
@@ -7899,7 +7858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>70445</v>
       </c>
@@ -7940,7 +7899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>76243</v>
       </c>
@@ -7981,7 +7940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>71821</v>
       </c>
@@ -8022,7 +7981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>76875</v>
       </c>
@@ -8063,7 +8022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>75457</v>
       </c>
@@ -8104,7 +8063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>70388</v>
       </c>
@@ -8145,7 +8104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>75605</v>
       </c>
@@ -8186,7 +8145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>75430</v>
       </c>
@@ -8227,7 +8186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>75271</v>
       </c>
@@ -8268,7 +8227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>75126</v>
       </c>
@@ -8309,7 +8268,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>74423</v>
       </c>
@@ -8350,7 +8309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>71818</v>
       </c>
@@ -8391,7 +8350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>74433</v>
       </c>
@@ -8432,7 +8391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>75286</v>
       </c>
@@ -8473,7 +8432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>74441</v>
       </c>
@@ -8514,7 +8473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>71834</v>
       </c>
@@ -8555,7 +8514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>74413</v>
       </c>
@@ -8596,7 +8555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>75602</v>
       </c>
@@ -8637,7 +8596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>71825</v>
       </c>
@@ -8678,7 +8637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>76454</v>
       </c>
@@ -8719,7 +8678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>75287</v>
       </c>
@@ -8760,7 +8719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>74484</v>
       </c>
@@ -8801,7 +8760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>75453</v>
       </c>
@@ -8842,7 +8801,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>70310</v>
       </c>
@@ -8883,7 +8842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>70270</v>
       </c>
@@ -8924,7 +8883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>73825</v>
       </c>
@@ -8965,7 +8924,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>74436</v>
       </c>
@@ -9006,7 +8965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>74540</v>
       </c>
@@ -9047,7 +9006,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>75002</v>
       </c>
@@ -9088,7 +9047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>74432</v>
       </c>
@@ -9129,7 +9088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>76823</v>
       </c>
@@ -9170,7 +9129,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>76443</v>
       </c>
@@ -9211,7 +9170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>75008</v>
       </c>
@@ -9252,7 +9211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>71817</v>
       </c>
@@ -9293,7 +9252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>70276</v>
       </c>
@@ -9334,7 +9293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>74461</v>
       </c>
@@ -9375,7 +9334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>76822</v>
       </c>
@@ -9416,7 +9375,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>74266</v>
       </c>
@@ -9457,7 +9416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>70671</v>
       </c>
@@ -9498,7 +9457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>70261</v>
       </c>
@@ -9539,7 +9498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>75274</v>
       </c>
@@ -9580,7 +9539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>74877</v>
       </c>
@@ -9621,7 +9580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>73233</v>
       </c>
@@ -9662,7 +9621,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>75431</v>
       </c>
@@ -9703,7 +9662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>74487</v>
       </c>
@@ -9744,7 +9703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>73232</v>
       </c>
@@ -9785,7 +9744,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>70672</v>
       </c>
@@ -9826,7 +9785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>76244</v>
       </c>
@@ -9867,7 +9826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>75474</v>
       </c>
@@ -9908,7 +9867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>75440</v>
       </c>
@@ -9949,7 +9908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>75425</v>
       </c>
@@ -9990,7 +9949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>76455</v>
       </c>
@@ -10031,7 +9990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>71826</v>
       </c>
@@ -10072,7 +10031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>76807</v>
       </c>
@@ -10113,7 +10072,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>74438</v>
       </c>
@@ -10154,7 +10113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>74468</v>
       </c>
@@ -10195,7 +10154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>73081</v>
       </c>
@@ -10236,7 +10195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>74435</v>
       </c>
@@ -10277,7 +10236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>75441</v>
       </c>
@@ -10318,7 +10277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>70271</v>
       </c>
@@ -10359,7 +10318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>76457</v>
       </c>
@@ -10400,7 +10359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>70274</v>
       </c>
@@ -10441,7 +10400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>72030</v>
       </c>
@@ -10482,7 +10441,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>74467</v>
       </c>
@@ -10523,7 +10482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>73378</v>
       </c>
@@ -10564,7 +10523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>75542</v>
       </c>
@@ -10605,7 +10564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>73327</v>
       </c>
@@ -10646,7 +10605,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>75427</v>
       </c>
@@ -10687,7 +10646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>75476</v>
       </c>
@@ -10728,7 +10687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>70737</v>
       </c>
@@ -10769,7 +10728,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>70707</v>
       </c>
@@ -10810,7 +10769,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>71837</v>
       </c>
@@ -10851,7 +10810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>75564</v>
       </c>
@@ -10892,7 +10851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>74417</v>
       </c>
@@ -10933,7 +10892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>76456</v>
       </c>
@@ -10974,7 +10933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>71824</v>
       </c>
@@ -11015,7 +10974,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>70380</v>
       </c>
@@ -11056,7 +11015,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>76333</v>
       </c>
@@ -11097,7 +11056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>76828</v>
       </c>
@@ -11138,7 +11097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>76825</v>
       </c>
@@ -11179,7 +11138,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>76452</v>
       </c>
@@ -11220,7 +11179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>75465</v>
       </c>
@@ -11261,7 +11220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>70308</v>
       </c>
@@ -11302,7 +11261,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>71816</v>
       </c>
@@ -11343,7 +11302,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>70358</v>
       </c>
@@ -11384,7 +11343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>74457</v>
       </c>
@@ -11425,7 +11384,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>75270</v>
       </c>
@@ -11466,7 +11425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>74376</v>
       </c>
@@ -11507,7 +11466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>75604</v>
       </c>
@@ -11550,7 +11509,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="18" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -11559,35 +11521,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -11628,7 +11587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>70261</v>
       </c>
@@ -11669,7 +11628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>70266</v>
       </c>
@@ -11710,7 +11669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>70267</v>
       </c>
@@ -11751,7 +11710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>70270</v>
       </c>
@@ -11792,7 +11751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>70271</v>
       </c>
@@ -11833,7 +11792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>70273</v>
       </c>
@@ -11874,7 +11833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>70274</v>
       </c>
@@ -11915,7 +11874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>70276</v>
       </c>
@@ -11956,7 +11915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>70308</v>
       </c>
@@ -11997,7 +11956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>70310</v>
       </c>
@@ -12038,7 +11997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>70315</v>
       </c>
@@ -12079,7 +12038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>70323</v>
       </c>
@@ -12120,7 +12079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>70335</v>
       </c>
@@ -12161,7 +12120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>70358</v>
       </c>
@@ -12202,7 +12161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>70380</v>
       </c>
@@ -12243,7 +12202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>70382</v>
       </c>
@@ -12284,7 +12243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>70386</v>
       </c>
@@ -12325,7 +12284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>70388</v>
       </c>
@@ -12366,7 +12325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>70445</v>
       </c>
@@ -12407,7 +12366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>70671</v>
       </c>
@@ -12448,7 +12407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>70672</v>
       </c>
@@ -12489,7 +12448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>70685</v>
       </c>
@@ -12530,7 +12489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>70706</v>
       </c>
@@ -12571,7 +12530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>70707</v>
       </c>
@@ -12612,7 +12571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>70733</v>
       </c>
@@ -12653,7 +12612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>70737</v>
       </c>
@@ -12694,7 +12653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>70738</v>
       </c>
@@ -12735,7 +12694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>70741</v>
       </c>
@@ -12776,7 +12735,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>70742</v>
       </c>
@@ -12817,7 +12776,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>71575</v>
       </c>
@@ -12858,7 +12817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>71577</v>
       </c>
@@ -12899,7 +12858,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>71578</v>
       </c>
@@ -12940,7 +12899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>71600</v>
       </c>
@@ -12981,7 +12940,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>71600</v>
       </c>
@@ -13022,7 +12981,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>71815</v>
       </c>
@@ -13063,7 +13022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>74540</v>
       </c>
@@ -13104,7 +13063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>71817</v>
       </c>
@@ -13145,7 +13104,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>71818</v>
       </c>
@@ -13186,7 +13145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>71820</v>
       </c>
@@ -13227,7 +13186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>71821</v>
       </c>
@@ -13268,7 +13227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>71823</v>
       </c>
@@ -13309,7 +13268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>71824</v>
       </c>
@@ -13350,7 +13309,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>71825</v>
       </c>
@@ -13391,7 +13350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>71826</v>
       </c>
@@ -13432,7 +13391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>71827</v>
       </c>
@@ -13473,7 +13432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>71828</v>
       </c>
@@ -13514,7 +13473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>71829</v>
       </c>
@@ -13555,7 +13514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>71830</v>
       </c>
@@ -13596,7 +13555,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>71833</v>
       </c>
@@ -13637,7 +13596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>71834</v>
       </c>
@@ -13678,7 +13637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>71837</v>
       </c>
@@ -13719,7 +13678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>72030</v>
       </c>
@@ -13760,7 +13719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>72237</v>
       </c>
@@ -13801,7 +13760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>72656</v>
       </c>
@@ -13842,7 +13801,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>73075</v>
       </c>
@@ -13883,7 +13842,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>73081</v>
       </c>
@@ -13924,7 +13883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>73227</v>
       </c>
@@ -13965,7 +13924,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>73232</v>
       </c>
@@ -14006,7 +13965,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>73233</v>
       </c>
@@ -14047,7 +14006,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>73236</v>
       </c>
@@ -14088,7 +14047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>73251</v>
       </c>
@@ -14129,7 +14088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>73268</v>
       </c>
@@ -14170,7 +14129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>73327</v>
       </c>
@@ -14211,7 +14170,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>73378</v>
       </c>
@@ -14252,7 +14211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>73825</v>
       </c>
@@ -14293,7 +14252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>74266</v>
       </c>
@@ -14334,7 +14293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>74376</v>
       </c>
@@ -14375,7 +14334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>74412</v>
       </c>
@@ -14416,7 +14375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>74413</v>
       </c>
@@ -14457,7 +14416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>74417</v>
       </c>
@@ -14498,7 +14457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>74423</v>
       </c>
@@ -14539,7 +14498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>74424</v>
       </c>
@@ -14580,7 +14539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>74427</v>
       </c>
@@ -14621,7 +14580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74430</v>
       </c>
@@ -14662,7 +14621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74431</v>
       </c>
@@ -14703,7 +14662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>74432</v>
       </c>
@@ -14744,7 +14703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>74433</v>
       </c>
@@ -14785,7 +14744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74435</v>
       </c>
@@ -14826,7 +14785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>74436</v>
       </c>
@@ -14867,7 +14826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>74437</v>
       </c>
@@ -14908,7 +14867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>74438</v>
       </c>
@@ -14949,7 +14908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>74440</v>
       </c>
@@ -14990,7 +14949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>74441</v>
       </c>
@@ -15031,7 +14990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>74457</v>
       </c>
@@ -15072,7 +15031,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>74461</v>
       </c>
@@ -15113,7 +15072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>74467</v>
       </c>
@@ -15154,7 +15113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>74468</v>
       </c>
@@ -15195,7 +15154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>74471</v>
       </c>
@@ -15236,7 +15195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>74477</v>
       </c>
@@ -15277,7 +15236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>74484</v>
       </c>
@@ -15318,7 +15277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>74487</v>
       </c>
@@ -15359,7 +15318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>74501</v>
       </c>
@@ -15400,7 +15359,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>74787</v>
       </c>
@@ -15441,7 +15400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>74877</v>
       </c>
@@ -15482,7 +15441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>75001</v>
       </c>
@@ -15523,7 +15482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>75002</v>
       </c>
@@ -15564,7 +15523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>75007</v>
       </c>
@@ -15605,7 +15564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>75008</v>
       </c>
@@ -15646,7 +15605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>75010</v>
       </c>
@@ -15687,7 +15646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>75011</v>
       </c>
@@ -15728,7 +15687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>75012</v>
       </c>
@@ -15769,7 +15728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>75126</v>
       </c>
@@ -15810,7 +15769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>75270</v>
       </c>
@@ -15851,7 +15810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>75271</v>
       </c>
@@ -15892,7 +15851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>75274</v>
       </c>
@@ -15933,7 +15892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>75285</v>
       </c>
@@ -15974,7 +15933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>75286</v>
       </c>
@@ -16015,7 +15974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>75287</v>
       </c>
@@ -16056,7 +16015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>75425</v>
       </c>
@@ -16097,7 +16056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>75426</v>
       </c>
@@ -16138,7 +16097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>75427</v>
       </c>
@@ -16179,7 +16138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>75430</v>
       </c>
@@ -16220,7 +16179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>75431</v>
       </c>
@@ -16261,7 +16220,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>75432</v>
       </c>
@@ -16302,7 +16261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>75437</v>
       </c>
@@ -16343,7 +16302,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>75440</v>
       </c>
@@ -16384,7 +16343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>75441</v>
       </c>
@@ -16425,7 +16384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>75445</v>
       </c>
@@ -16466,7 +16425,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>75446</v>
       </c>
@@ -16507,7 +16466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>75447</v>
       </c>
@@ -16548,7 +16507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>75451</v>
       </c>
@@ -16589,7 +16548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>75452</v>
       </c>
@@ -16630,7 +16589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>75453</v>
       </c>
@@ -16671,7 +16630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>75457</v>
       </c>
@@ -16712,7 +16671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>75458</v>
       </c>
@@ -16753,7 +16712,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>75464</v>
       </c>
@@ -16794,7 +16753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>75465</v>
       </c>
@@ -16835,7 +16794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>75472</v>
       </c>
@@ -16876,7 +16835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>75474</v>
       </c>
@@ -16917,7 +16876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>75475</v>
       </c>
@@ -16958,7 +16917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>75476</v>
       </c>
@@ -16999,7 +16958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>75477</v>
       </c>
@@ -17040,7 +16999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>75478</v>
       </c>
@@ -17081,7 +17040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>75542</v>
       </c>
@@ -17122,7 +17081,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>75562</v>
       </c>
@@ -17163,7 +17122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>75563</v>
       </c>
@@ -17204,7 +17163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>75564</v>
       </c>
@@ -17245,7 +17204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>75602</v>
       </c>
@@ -17286,7 +17245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>75603</v>
       </c>
@@ -17327,7 +17286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>75604</v>
       </c>
@@ -17368,7 +17327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>75605</v>
       </c>
@@ -17409,7 +17368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>76243</v>
       </c>
@@ -17450,7 +17409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>76244</v>
       </c>
@@ -17491,7 +17450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>76245</v>
       </c>
@@ -17532,7 +17491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>76321</v>
       </c>
@@ -17573,7 +17532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>76333</v>
       </c>
@@ -17614,7 +17573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>76442</v>
       </c>
@@ -17655,7 +17614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>76443</v>
       </c>
@@ -17696,7 +17655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>76451</v>
       </c>
@@ -17737,7 +17696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>76452</v>
       </c>
@@ -17778,7 +17737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>76453</v>
       </c>
@@ -17819,7 +17778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>76454</v>
       </c>
@@ -17860,7 +17819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>76455</v>
       </c>
@@ -17901,7 +17860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>76456</v>
       </c>
@@ -17942,7 +17901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>76457</v>
       </c>
@@ -17983,7 +17942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>76458</v>
       </c>
@@ -18024,7 +17983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>76460</v>
       </c>
@@ -18065,7 +18024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>76563</v>
       </c>
@@ -18106,7 +18065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>76600</v>
       </c>
@@ -18147,7 +18106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>76807</v>
       </c>
@@ -18188,7 +18147,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>76822</v>
       </c>
@@ -18229,7 +18188,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>76823</v>
       </c>
@@ -18270,7 +18229,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>76824</v>
       </c>
@@ -18311,7 +18270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>76825</v>
       </c>
@@ -18352,7 +18311,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>76826</v>
       </c>
@@ -18393,7 +18352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>76827</v>
       </c>
@@ -18434,7 +18393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>76828</v>
       </c>
@@ -18475,7 +18434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>76829</v>
       </c>
@@ -18516,7 +18475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>76875</v>
       </c>
@@ -18559,7 +18518,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="18" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -18568,35 +18530,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -18637,7 +18596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>70261</v>
       </c>
@@ -18678,7 +18637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>70266</v>
       </c>
@@ -18719,7 +18678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>70267</v>
       </c>
@@ -18760,7 +18719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>70270</v>
       </c>
@@ -18801,7 +18760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>70271</v>
       </c>
@@ -18842,7 +18801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>70273</v>
       </c>
@@ -18883,7 +18842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>70274</v>
       </c>
@@ -18924,7 +18883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>70276</v>
       </c>
@@ -18965,7 +18924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>70308</v>
       </c>
@@ -19006,7 +18965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>70310</v>
       </c>
@@ -19047,7 +19006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>70315</v>
       </c>
@@ -19088,7 +19047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>70323</v>
       </c>
@@ -19129,7 +19088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>70335</v>
       </c>
@@ -19170,7 +19129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>70358</v>
       </c>
@@ -19211,7 +19170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>70380</v>
       </c>
@@ -19252,7 +19211,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>70382</v>
       </c>
@@ -19293,7 +19252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>70386</v>
       </c>
@@ -19334,7 +19293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>70388</v>
       </c>
@@ -19375,7 +19334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>70445</v>
       </c>
@@ -19416,7 +19375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>70671</v>
       </c>
@@ -19457,7 +19416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>70672</v>
       </c>
@@ -19498,7 +19457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>70685</v>
       </c>
@@ -19539,7 +19498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>70706</v>
       </c>
@@ -19580,7 +19539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>70707</v>
       </c>
@@ -19621,7 +19580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>70733</v>
       </c>
@@ -19662,7 +19621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>70737</v>
       </c>
@@ -19703,7 +19662,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>70738</v>
       </c>
@@ -19744,7 +19703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>70741</v>
       </c>
@@ -19785,7 +19744,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>70742</v>
       </c>
@@ -19826,7 +19785,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>71575</v>
       </c>
@@ -19867,7 +19826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>71577</v>
       </c>
@@ -19908,7 +19867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>71578</v>
       </c>
@@ -19949,7 +19908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>71600</v>
       </c>
@@ -19990,7 +19949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>74540</v>
       </c>
@@ -20031,7 +19990,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>71815</v>
       </c>
@@ -20072,7 +20031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>71816</v>
       </c>
@@ -20113,7 +20072,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>71817</v>
       </c>
@@ -20154,7 +20113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>71818</v>
       </c>
@@ -20195,7 +20154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>71820</v>
       </c>
@@ -20236,7 +20195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>71821</v>
       </c>
@@ -20277,7 +20236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>71823</v>
       </c>
@@ -20318,7 +20277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>71824</v>
       </c>
@@ -20359,7 +20318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>71825</v>
       </c>
@@ -20400,7 +20359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>71826</v>
       </c>
@@ -20441,7 +20400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>71827</v>
       </c>
@@ -20482,7 +20441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>71828</v>
       </c>
@@ -20523,7 +20482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>71829</v>
       </c>
@@ -20564,7 +20523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>71830</v>
       </c>
@@ -20605,7 +20564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>71833</v>
       </c>
@@ -20646,7 +20605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>71834</v>
       </c>
@@ -20687,7 +20646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>71837</v>
       </c>
@@ -20728,7 +20687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>72030</v>
       </c>
@@ -20769,7 +20728,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>72237</v>
       </c>
@@ -20810,7 +20769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>72656</v>
       </c>
@@ -20851,7 +20810,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>73075</v>
       </c>
@@ -20892,7 +20851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>73081</v>
       </c>
@@ -20933,7 +20892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>73227</v>
       </c>
@@ -20974,7 +20933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>73232</v>
       </c>
@@ -21015,7 +20974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>73233</v>
       </c>
@@ -21056,7 +21015,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>73236</v>
       </c>
@@ -21097,7 +21056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>73251</v>
       </c>
@@ -21138,7 +21097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>73268</v>
       </c>
@@ -21179,7 +21138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>73327</v>
       </c>
@@ -21220,7 +21179,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>73378</v>
       </c>
@@ -21261,7 +21220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>73825</v>
       </c>
@@ -21302,7 +21261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>74266</v>
       </c>
@@ -21343,7 +21302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>74376</v>
       </c>
@@ -21384,7 +21343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>74412</v>
       </c>
@@ -21425,7 +21384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>74413</v>
       </c>
@@ -21466,7 +21425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>74417</v>
       </c>
@@ -21507,7 +21466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>74423</v>
       </c>
@@ -21548,7 +21507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>74424</v>
       </c>
@@ -21589,7 +21548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>74427</v>
       </c>
@@ -21630,7 +21589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74430</v>
       </c>
@@ -21671,7 +21630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74431</v>
       </c>
@@ -21712,7 +21671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>74432</v>
       </c>
@@ -21753,7 +21712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>74433</v>
       </c>
@@ -21794,7 +21753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74435</v>
       </c>
@@ -21835,7 +21794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>74436</v>
       </c>
@@ -21876,7 +21835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>74437</v>
       </c>
@@ -21917,7 +21876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>74438</v>
       </c>
@@ -21958,7 +21917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>74440</v>
       </c>
@@ -21999,7 +21958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>74441</v>
       </c>
@@ -22040,7 +21999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>74457</v>
       </c>
@@ -22081,7 +22040,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>74461</v>
       </c>
@@ -22122,7 +22081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>74467</v>
       </c>
@@ -22163,7 +22122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>74468</v>
       </c>
@@ -22204,7 +22163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>74471</v>
       </c>
@@ -22245,7 +22204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>74477</v>
       </c>
@@ -22286,7 +22245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>74484</v>
       </c>
@@ -22327,7 +22286,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>74487</v>
       </c>
@@ -22368,7 +22327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>74501</v>
       </c>
@@ -22409,7 +22368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>74787</v>
       </c>
@@ -22450,7 +22409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>74877</v>
       </c>
@@ -22491,7 +22450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>75001</v>
       </c>
@@ -22532,7 +22491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>75002</v>
       </c>
@@ -22573,7 +22532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>75007</v>
       </c>
@@ -22614,7 +22573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>75008</v>
       </c>
@@ -22655,7 +22614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>75010</v>
       </c>
@@ -22696,7 +22655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>75011</v>
       </c>
@@ -22737,7 +22696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>75012</v>
       </c>
@@ -22778,7 +22737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>75126</v>
       </c>
@@ -22819,7 +22778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>75270</v>
       </c>
@@ -22860,7 +22819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>75271</v>
       </c>
@@ -22901,7 +22860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>75274</v>
       </c>
@@ -22942,7 +22901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>75285</v>
       </c>
@@ -22983,7 +22942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>75286</v>
       </c>
@@ -23024,7 +22983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>75287</v>
       </c>
@@ -23065,7 +23024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>75425</v>
       </c>
@@ -23106,7 +23065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>75426</v>
       </c>
@@ -23147,7 +23106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>75427</v>
       </c>
@@ -23188,7 +23147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>75430</v>
       </c>
@@ -23229,7 +23188,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>75431</v>
       </c>
@@ -23270,7 +23229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>75432</v>
       </c>
@@ -23311,7 +23270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>75437</v>
       </c>
@@ -23352,7 +23311,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>75440</v>
       </c>
@@ -23393,7 +23352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>75441</v>
       </c>
@@ -23434,7 +23393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>75445</v>
       </c>
@@ -23475,7 +23434,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>75446</v>
       </c>
@@ -23516,7 +23475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>75447</v>
       </c>
@@ -23557,7 +23516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>75451</v>
       </c>
@@ -23598,7 +23557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>75452</v>
       </c>
@@ -23639,7 +23598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>75453</v>
       </c>
@@ -23680,7 +23639,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>75457</v>
       </c>
@@ -23721,7 +23680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>75458</v>
       </c>
@@ -23762,7 +23721,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>75464</v>
       </c>
@@ -23803,7 +23762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>75465</v>
       </c>
@@ -23844,7 +23803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>75472</v>
       </c>
@@ -23885,7 +23844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>75474</v>
       </c>
@@ -23926,7 +23885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>75475</v>
       </c>
@@ -23967,7 +23926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>75476</v>
       </c>
@@ -24008,7 +23967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>75477</v>
       </c>
@@ -24049,7 +24008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>75478</v>
       </c>
@@ -24090,7 +24049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>75542</v>
       </c>
@@ -24131,7 +24090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>75562</v>
       </c>
@@ -24172,7 +24131,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>75563</v>
       </c>
@@ -24213,7 +24172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>75564</v>
       </c>
@@ -24254,7 +24213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>75602</v>
       </c>
@@ -24295,7 +24254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>75603</v>
       </c>
@@ -24336,7 +24295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>75604</v>
       </c>
@@ -24377,7 +24336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>75605</v>
       </c>
@@ -24418,7 +24377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>76243</v>
       </c>
@@ -24459,7 +24418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>76244</v>
       </c>
@@ -24500,7 +24459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>76245</v>
       </c>
@@ -24541,7 +24500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>76321</v>
       </c>
@@ -24582,7 +24541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>76333</v>
       </c>
@@ -24623,7 +24582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>76442</v>
       </c>
@@ -24664,7 +24623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>76443</v>
       </c>
@@ -24705,7 +24664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>76451</v>
       </c>
@@ -24746,7 +24705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>76452</v>
       </c>
@@ -24787,7 +24746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>76453</v>
       </c>
@@ -24828,7 +24787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>76454</v>
       </c>
@@ -24869,7 +24828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>76455</v>
       </c>
@@ -24910,7 +24869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>76456</v>
       </c>
@@ -24951,7 +24910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>76457</v>
       </c>
@@ -24992,7 +24951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>76458</v>
       </c>
@@ -25033,7 +24992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>76460</v>
       </c>
@@ -25074,7 +25033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>76563</v>
       </c>
@@ -25115,7 +25074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>76600</v>
       </c>
@@ -25156,7 +25115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>76807</v>
       </c>
@@ -25197,7 +25156,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>76822</v>
       </c>
@@ -25238,7 +25197,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>76823</v>
       </c>
@@ -25279,7 +25238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>76824</v>
       </c>
@@ -25320,7 +25279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>76825</v>
       </c>
@@ -25361,7 +25320,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>76826</v>
       </c>
@@ -25402,7 +25361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>76827</v>
       </c>
@@ -25443,7 +25402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>76828</v>
       </c>
@@ -25484,7 +25443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>76829</v>
       </c>
@@ -25525,7 +25484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>76875</v>
       </c>
@@ -25568,7 +25527,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="18" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -25577,39 +25539,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="17"/>
+    <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>156</v>
       </c>
@@ -25632,7 +25591,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19" t="s">
         <v>178</v>
@@ -25643,32 +25602,32 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="20"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>156</v>
       </c>
@@ -25691,7 +25650,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>85249</v>
       </c>
@@ -25714,7 +25673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>57836</v>
       </c>
@@ -25737,7 +25696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>47523</v>
       </c>
@@ -25760,7 +25719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>12968</v>
       </c>
@@ -25783,7 +25742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>74625</v>
       </c>
@@ -25806,7 +25765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>32699</v>
       </c>
@@ -25829,7 +25788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>55812</v>
       </c>
@@ -25852,7 +25811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>65377</v>
       </c>
@@ -25875,7 +25834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14386</v>
       </c>
@@ -25898,7 +25857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>77622</v>
       </c>
@@ -25921,7 +25880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>18466</v>
       </c>
@@ -25944,7 +25903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>54887</v>
       </c>
@@ -25967,7 +25926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>46395</v>
       </c>
@@ -25990,7 +25949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>97826</v>
       </c>
@@ -26013,7 +25972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>36978</v>
       </c>
@@ -26036,7 +25995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>57823</v>
       </c>
@@ -26059,7 +26018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>21987</v>
       </c>
@@ -26082,7 +26041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>47593</v>
       </c>
@@ -26105,7 +26064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>13258</v>
       </c>
@@ -26128,7 +26087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>65485</v>
       </c>
@@ -26151,7 +26110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>48752</v>
       </c>
@@ -26174,7 +26133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>28965</v>
       </c>
@@ -26197,7 +26156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>85234</v>
       </c>
@@ -26220,7 +26179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>25436</v>
       </c>
@@ -26243,7 +26202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>54896</v>
       </c>
@@ -26266,7 +26225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>48539</v>
       </c>
@@ -26289,7 +26248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>19375</v>
       </c>
@@ -26312,17 +26271,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -26341,7 +26300,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -26350,39 +26312,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>156</v>
       </c>
@@ -26405,7 +26364,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>167</v>
       </c>
@@ -26413,18 +26372,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>156</v>
       </c>
@@ -26447,7 +26406,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>85249</v>
       </c>
@@ -26471,7 +26430,7 @@
       </c>
       <c r="I8" s="29"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>57836</v>
       </c>
@@ -26495,7 +26454,7 @@
       </c>
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>47523</v>
       </c>
@@ -26519,7 +26478,7 @@
       </c>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>12968</v>
       </c>
@@ -26543,7 +26502,7 @@
       </c>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>74625</v>
       </c>
@@ -26567,7 +26526,7 @@
       </c>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>32699</v>
       </c>
@@ -26591,7 +26550,7 @@
       </c>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>55812</v>
       </c>
@@ -26615,7 +26574,7 @@
       </c>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>65377</v>
       </c>
@@ -26639,7 +26598,7 @@
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>14386</v>
       </c>
@@ -26663,7 +26622,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>77622</v>
       </c>
@@ -26687,7 +26646,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>18466</v>
       </c>
@@ -26711,7 +26670,7 @@
       </c>
       <c r="I18" s="29"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>54887</v>
       </c>
@@ -26735,7 +26694,7 @@
       </c>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>46395</v>
       </c>
@@ -26759,7 +26718,7 @@
       </c>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>97826</v>
       </c>
@@ -26783,7 +26742,7 @@
       </c>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>36978</v>
       </c>
@@ -26807,7 +26766,7 @@
       </c>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>57823</v>
       </c>
@@ -26831,7 +26790,7 @@
       </c>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>21987</v>
       </c>
@@ -26855,7 +26814,7 @@
       </c>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>47593</v>
       </c>
@@ -26879,7 +26838,7 @@
       </c>
       <c r="I25" s="29"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>13258</v>
       </c>
@@ -26903,7 +26862,7 @@
       </c>
       <c r="I26" s="29"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>65485</v>
       </c>
@@ -26927,7 +26886,7 @@
       </c>
       <c r="I27" s="29"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>48752</v>
       </c>
@@ -26951,7 +26910,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>28965</v>
       </c>
@@ -26975,7 +26934,7 @@
       </c>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>85234</v>
       </c>
@@ -26999,7 +26958,7 @@
       </c>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>25436</v>
       </c>
@@ -27023,7 +26982,7 @@
       </c>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>54896</v>
       </c>
@@ -27047,7 +27006,7 @@
       </c>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>48539</v>
       </c>
@@ -27071,7 +27030,7 @@
       </c>
       <c r="I33" s="29"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>19375</v>
       </c>
@@ -27095,18 +27054,18 @@
       </c>
       <c r="I34" s="29"/>
     </row>
-    <row r="36" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A36" s="32" t="s">
+    <row r="36" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>156</v>
       </c>
@@ -27129,7 +27088,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>47593</v>
       </c>
@@ -27152,7 +27111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>48752</v>
       </c>
@@ -27182,7 +27141,10 @@
     <mergeCell ref="A36:G36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -27193,34 +27155,34 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>156</v>
       </c>
@@ -27243,7 +27205,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>65485</v>
       </c>
@@ -27267,7 +27229,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>13258</v>
       </c>
@@ -27291,7 +27253,7 @@
       </c>
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>97826</v>
       </c>
@@ -27315,7 +27277,7 @@
       </c>
       <c r="I5" s="29"/>
     </row>
-    <row r="6" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>54896</v>
       </c>
@@ -27339,7 +27301,7 @@
       </c>
       <c r="I6" s="29"/>
     </row>
-    <row r="7" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>32699</v>
       </c>
@@ -27363,7 +27325,7 @@
       </c>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>77622</v>
       </c>
@@ -27387,7 +27349,7 @@
       </c>
       <c r="I8" s="29"/>
     </row>
-    <row r="9" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>57823</v>
       </c>
@@ -27411,7 +27373,7 @@
       </c>
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>28965</v>
       </c>
@@ -27435,9 +27397,9 @@
       </c>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>179</v>
       </c>
       <c r="D11" s="28">
@@ -27446,7 +27408,7 @@
       </c>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>21987</v>
       </c>
@@ -27470,7 +27432,7 @@
       </c>
       <c r="I12" s="29"/>
     </row>
-    <row r="13" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>57836</v>
       </c>
@@ -27494,7 +27456,7 @@
       </c>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>47593</v>
       </c>
@@ -27518,7 +27480,7 @@
       </c>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>65377</v>
       </c>
@@ -27542,7 +27504,7 @@
       </c>
       <c r="I15" s="29"/>
     </row>
-    <row r="16" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>54887</v>
       </c>
@@ -27566,7 +27528,7 @@
       </c>
       <c r="I16" s="29"/>
     </row>
-    <row r="17" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>19375</v>
       </c>
@@ -27590,7 +27552,7 @@
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>12968</v>
       </c>
@@ -27614,7 +27576,7 @@
       </c>
       <c r="I18" s="29"/>
     </row>
-    <row r="19" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>85249</v>
       </c>
@@ -27638,7 +27600,7 @@
       </c>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>55812</v>
       </c>
@@ -27662,9 +27624,9 @@
       </c>
       <c r="I20" s="29"/>
     </row>
-    <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="31" t="s">
         <v>180</v>
       </c>
       <c r="D21" s="28">
@@ -27673,7 +27635,7 @@
       </c>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>25436</v>
       </c>
@@ -27697,7 +27659,7 @@
       </c>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>46395</v>
       </c>
@@ -27721,7 +27683,7 @@
       </c>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>36978</v>
       </c>
@@ -27745,9 +27707,9 @@
       </c>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="31" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="28">
@@ -27756,7 +27718,7 @@
       </c>
       <c r="I25" s="29"/>
     </row>
-    <row r="26" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>85234</v>
       </c>
@@ -27780,7 +27742,7 @@
       </c>
       <c r="I26" s="29"/>
     </row>
-    <row r="27" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>18466</v>
       </c>
@@ -27804,7 +27766,7 @@
       </c>
       <c r="I27" s="29"/>
     </row>
-    <row r="28" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>48752</v>
       </c>
@@ -27828,7 +27790,7 @@
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>14386</v>
       </c>
@@ -27852,7 +27814,7 @@
       </c>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>48539</v>
       </c>
@@ -27876,7 +27838,7 @@
       </c>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>74625</v>
       </c>
@@ -27900,7 +27862,7 @@
       </c>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>47523</v>
       </c>
@@ -27924,9 +27886,9 @@
       </c>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="31" t="s">
         <v>182</v>
       </c>
       <c r="D33" s="28">
@@ -27935,9 +27897,9 @@
       </c>
       <c r="I33" s="29"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="31" t="s">
         <v>183</v>
       </c>
       <c r="D34" s="28">
@@ -27955,6 +27917,9 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>